--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H2">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I2">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J2">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N2">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O2">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P2">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q2">
-        <v>30.81377620339774</v>
+        <v>39.93726195325377</v>
       </c>
       <c r="R2">
-        <v>30.81377620339774</v>
+        <v>359.435357579284</v>
       </c>
       <c r="S2">
-        <v>0.0001458817430801788</v>
+        <v>0.0001498860647344303</v>
       </c>
       <c r="T2">
-        <v>0.0001458817430801788</v>
+        <v>0.0001498860647344303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H3">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I3">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J3">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N3">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O3">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P3">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q3">
-        <v>128.252283617292</v>
+        <v>159.1117860051493</v>
       </c>
       <c r="R3">
-        <v>128.252283617292</v>
+        <v>1432.006074046344</v>
       </c>
       <c r="S3">
-        <v>0.000607185129294246</v>
+        <v>0.0005971525911088563</v>
       </c>
       <c r="T3">
-        <v>0.000607185129294246</v>
+        <v>0.0005971525911088563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H4">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I4">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J4">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N4">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O4">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P4">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q4">
-        <v>44376.46314410932</v>
+        <v>56600.27906754042</v>
       </c>
       <c r="R4">
-        <v>44376.46314410932</v>
+        <v>509402.5116078638</v>
       </c>
       <c r="S4">
-        <v>0.2100916081321492</v>
+        <v>0.2124230024139902</v>
       </c>
       <c r="T4">
-        <v>0.2100916081321492</v>
+        <v>0.2124230024139902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.7582308904775</v>
+        <v>24.11008933333333</v>
       </c>
       <c r="H5">
-        <v>19.7582308904775</v>
+        <v>72.33026799999999</v>
       </c>
       <c r="I5">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="J5">
-        <v>0.2111579731181563</v>
+        <v>0.2144059681009565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N5">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O5">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P5">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q5">
-        <v>66.1761900741641</v>
+        <v>329.3137469752381</v>
       </c>
       <c r="R5">
-        <v>66.1761900741641</v>
+        <v>2963.823722777143</v>
       </c>
       <c r="S5">
-        <v>0.0003132981136326869</v>
+        <v>0.001235927031123047</v>
       </c>
       <c r="T5">
-        <v>0.0003132981136326869</v>
+        <v>0.001235927031123047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.1447147027262</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H6">
-        <v>27.1447147027262</v>
+        <v>82.947355</v>
       </c>
       <c r="I6">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J6">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N6">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O6">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P6">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q6">
-        <v>42.33330243944078</v>
+        <v>45.79950187609612</v>
       </c>
       <c r="R6">
-        <v>42.33330243944078</v>
+        <v>412.1955168848651</v>
       </c>
       <c r="S6">
-        <v>0.0002004186669443337</v>
+        <v>0.0001718872743714951</v>
       </c>
       <c r="T6">
-        <v>0.0002004186669443337</v>
+        <v>0.0001718872743714951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1447147027262</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H7">
-        <v>27.1447147027262</v>
+        <v>82.947355</v>
       </c>
       <c r="I7">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J7">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N7">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O7">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P7">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q7">
-        <v>176.1985507742177</v>
+        <v>182.4672044413433</v>
       </c>
       <c r="R7">
-        <v>176.1985507742177</v>
+        <v>1642.20483997209</v>
       </c>
       <c r="S7">
-        <v>0.0008341772701104371</v>
+        <v>0.0006848063657648296</v>
       </c>
       <c r="T7">
-        <v>0.0008341772701104371</v>
+        <v>0.0006848063657648297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.1447147027262</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H8">
-        <v>27.1447147027262</v>
+        <v>82.947355</v>
       </c>
       <c r="I8">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J8">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N8">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O8">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P8">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q8">
-        <v>60966.31010337284</v>
+        <v>64908.42037132152</v>
       </c>
       <c r="R8">
-        <v>60966.31010337284</v>
+        <v>584175.7833418937</v>
       </c>
       <c r="S8">
-        <v>0.2886329649550076</v>
+        <v>0.2436037730621861</v>
       </c>
       <c r="T8">
-        <v>0.2886329649550076</v>
+        <v>0.2436037730621861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.1447147027262</v>
+        <v>27.64911833333333</v>
       </c>
       <c r="H9">
-        <v>27.1447147027262</v>
+        <v>82.947355</v>
       </c>
       <c r="I9">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="J9">
-        <v>0.2900979834313374</v>
+        <v>0.2458778107968398</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N9">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O9">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P9">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q9">
-        <v>90.91572062467957</v>
+        <v>377.6524687663988</v>
       </c>
       <c r="R9">
-        <v>90.91572062467957</v>
+        <v>3398.872218897589</v>
       </c>
       <c r="S9">
-        <v>0.0004304225392750259</v>
+        <v>0.00141734409451738</v>
       </c>
       <c r="T9">
-        <v>0.0004304225392750259</v>
+        <v>0.00141734409451738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.3935285362951</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H10">
-        <v>20.3935285362951</v>
+        <v>72.654572</v>
       </c>
       <c r="I10">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J10">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N10">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O10">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P10">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q10">
-        <v>31.80454909137951</v>
+        <v>40.1163268752929</v>
       </c>
       <c r="R10">
-        <v>31.80454909137951</v>
+        <v>361.046941877636</v>
       </c>
       <c r="S10">
-        <v>0.0001505723618132189</v>
+        <v>0.0001505581022047966</v>
       </c>
       <c r="T10">
-        <v>0.0001505723618132189</v>
+        <v>0.0001505581022047966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.3935285362951</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H11">
-        <v>20.3935285362951</v>
+        <v>72.654572</v>
       </c>
       <c r="I11">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J11">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N11">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O11">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P11">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q11">
-        <v>132.3760523040961</v>
+        <v>159.8251884309307</v>
       </c>
       <c r="R11">
-        <v>132.3760523040961</v>
+        <v>1438.426695878376</v>
       </c>
       <c r="S11">
-        <v>0.0006267082984157285</v>
+        <v>0.0005998300175758365</v>
       </c>
       <c r="T11">
-        <v>0.0006267082984157285</v>
+        <v>0.0005998300175758365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.3935285362951</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H12">
-        <v>20.3935285362951</v>
+        <v>72.654572</v>
       </c>
       <c r="I12">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J12">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N12">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O12">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P12">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q12">
-        <v>45803.32482628307</v>
+        <v>56854.05521700416</v>
       </c>
       <c r="R12">
-        <v>45803.32482628307</v>
+        <v>511686.4969530375</v>
       </c>
       <c r="S12">
-        <v>0.216846803209696</v>
+        <v>0.2133754339655347</v>
       </c>
       <c r="T12">
-        <v>0.216846803209696</v>
+        <v>0.2133754339655347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.3935285362951</v>
+        <v>24.21819066666667</v>
       </c>
       <c r="H13">
-        <v>20.3935285362951</v>
+        <v>72.654572</v>
       </c>
       <c r="I13">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="J13">
-        <v>0.2179474556361601</v>
+        <v>0.2153672905874018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N13">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O13">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P13">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q13">
-        <v>68.303990786502</v>
+        <v>330.7902763501751</v>
       </c>
       <c r="R13">
-        <v>68.303990786502</v>
+        <v>2977.112487151576</v>
       </c>
       <c r="S13">
-        <v>0.0003233717662351508</v>
+        <v>0.001241468502086507</v>
       </c>
       <c r="T13">
-        <v>0.0003233717662351508</v>
+        <v>0.001241468502086508</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.2743752147574</v>
+        <v>36.47324633333334</v>
       </c>
       <c r="H14">
-        <v>26.2743752147574</v>
+        <v>109.419739</v>
       </c>
       <c r="I14">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="J14">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.55954125519651</v>
+        <v>1.656454333333333</v>
       </c>
       <c r="N14">
-        <v>1.55954125519651</v>
+        <v>4.969363</v>
       </c>
       <c r="O14">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034363</v>
       </c>
       <c r="P14">
-        <v>0.000690865426135478</v>
+        <v>0.0006990759915034364</v>
       </c>
       <c r="Q14">
-        <v>40.97597210192683</v>
+        <v>60.41626693958412</v>
       </c>
       <c r="R14">
-        <v>40.97597210192683</v>
+        <v>543.7464024562571</v>
       </c>
       <c r="S14">
-        <v>0.0001939926542977465</v>
+        <v>0.0002267445501927142</v>
       </c>
       <c r="T14">
-        <v>0.0001939926542977465</v>
+        <v>0.0002267445501927142</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.2743752147574</v>
+        <v>36.47324633333334</v>
       </c>
       <c r="H15">
-        <v>26.2743752147574</v>
+        <v>109.419739</v>
       </c>
       <c r="I15">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="J15">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.49108132849603</v>
+        <v>6.599386</v>
       </c>
       <c r="N15">
-        <v>6.49108132849603</v>
+        <v>19.798158</v>
       </c>
       <c r="O15">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="P15">
-        <v>0.002875501788201422</v>
+        <v>0.002785149109411345</v>
       </c>
       <c r="Q15">
-        <v>170.5491063744106</v>
+        <v>240.7010312267514</v>
       </c>
       <c r="R15">
-        <v>170.5491063744106</v>
+        <v>2166.309281040762</v>
       </c>
       <c r="S15">
-        <v>0.0008074310903810102</v>
+        <v>0.0009033601349618224</v>
       </c>
       <c r="T15">
-        <v>0.0008074310903810102</v>
+        <v>0.0009033601349618225</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.2743752147574</v>
+        <v>36.47324633333334</v>
       </c>
       <c r="H16">
-        <v>26.2743752147574</v>
+        <v>109.419739</v>
       </c>
       <c r="I16">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="J16">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2245.97350795696</v>
+        <v>2347.576497333333</v>
       </c>
       <c r="N16">
-        <v>2245.97350795696</v>
+        <v>7042.729492</v>
       </c>
       <c r="O16">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="P16">
-        <v>0.9949499184413444</v>
+        <v>0.9907513503260664</v>
       </c>
       <c r="Q16">
-        <v>59011.55067046608</v>
+        <v>85623.73587358253</v>
       </c>
       <c r="R16">
-        <v>59011.55067046608</v>
+        <v>770613.6228622426</v>
       </c>
       <c r="S16">
-        <v>0.2793785421444916</v>
+        <v>0.3213491408843553</v>
       </c>
       <c r="T16">
-        <v>0.2793785421444916</v>
+        <v>0.3213491408843553</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.2743752147574</v>
+        <v>36.47324633333334</v>
       </c>
       <c r="H17">
-        <v>26.2743752147574</v>
+        <v>109.419739</v>
       </c>
       <c r="I17">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="J17">
-        <v>0.2807965878143463</v>
+        <v>0.3243489305148018</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.34929733542378</v>
+        <v>13.65875266666666</v>
       </c>
       <c r="N17">
-        <v>3.34929733542378</v>
+        <v>40.97625799999999</v>
       </c>
       <c r="O17">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018837</v>
       </c>
       <c r="P17">
-        <v>0.001483714344318776</v>
+        <v>0.005764424573018838</v>
       </c>
       <c r="Q17">
-        <v>88.00069489671156</v>
+        <v>498.1790506174069</v>
       </c>
       <c r="R17">
-        <v>88.00069489671156</v>
+        <v>4483.611455556662</v>
       </c>
       <c r="S17">
-        <v>0.0004166219251759124</v>
+        <v>0.001869684945291903</v>
       </c>
       <c r="T17">
-        <v>0.0004166219251759124</v>
+        <v>0.001869684945291903</v>
       </c>
     </row>
   </sheetData>
